--- a/src/test/resources/testdata/testData.xlsx
+++ b/src/test/resources/testdata/testData.xlsx
@@ -67,9 +67,6 @@
     <t>Dublin</t>
   </si>
   <si>
-    <t>Virgin America</t>
-  </si>
-  <si>
     <t>Anudeep</t>
   </si>
   <si>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>Airline:Virgin America</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +502,7 @@
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -563,7 +563,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -572,131 +572,131 @@
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
